--- a/Iolist_테이블명세.xlsx
+++ b/Iolist_테이블명세.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callor\Documents\workspace\java\Java_900_Iolist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3139D6-DFB6-45C9-AEA7-B5A41EE6D395}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69E1576-F60B-44F2-918F-4C6DA5B5B8C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="상품정보" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="89">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1289,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B3" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B9" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2156,7 +2156,7 @@
       <c r="K10" s="12"/>
       <c r="L10" s="18"/>
     </row>
-    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9">
         <v>6</v>
       </c>
@@ -2177,8 +2177,12 @@
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="E12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
@@ -2192,8 +2196,12 @@
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="E13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -2207,8 +2215,12 @@
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="E14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -2222,8 +2234,12 @@
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="E15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
@@ -2237,8 +2253,12 @@
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="E16" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
@@ -3653,12 +3673,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3671,7 +3691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F348530E-2545-441B-BF43-0383FB950F3C}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F4" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="F4" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -4890,12 +4910,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
